--- a/data/pca/factorExposure/factorExposure_2017-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02348698988610173</v>
+        <v>0.00917411585263515</v>
       </c>
       <c r="C2">
-        <v>0.003768429293040943</v>
+        <v>-0.0431143549576386</v>
       </c>
       <c r="D2">
-        <v>-0.02396239122156548</v>
+        <v>0.02962871739720807</v>
       </c>
       <c r="E2">
-        <v>-0.01146253338277599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03168303923902639</v>
+      </c>
+      <c r="F2">
+        <v>0.01196130962266635</v>
+      </c>
+      <c r="G2">
+        <v>0.07384198653394632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01772321556668087</v>
+        <v>0.04904857190955586</v>
       </c>
       <c r="C3">
-        <v>-0.05434358047227277</v>
+        <v>-0.08175286628407678</v>
       </c>
       <c r="D3">
-        <v>-0.03722458971388511</v>
+        <v>0.01696495840074307</v>
       </c>
       <c r="E3">
-        <v>-0.01551530492467484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1040352639678406</v>
+      </c>
+      <c r="F3">
+        <v>0.0119640980478891</v>
+      </c>
+      <c r="G3">
+        <v>0.1814958209388292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02329631597006555</v>
+        <v>0.0592551775802412</v>
       </c>
       <c r="C4">
-        <v>-0.01020997564627681</v>
+        <v>-0.06474892263193317</v>
       </c>
       <c r="D4">
-        <v>-0.07694366267248955</v>
+        <v>0.02394668410169074</v>
       </c>
       <c r="E4">
-        <v>0.01481457920676696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02252353414014688</v>
+      </c>
+      <c r="F4">
+        <v>0.007257332279611864</v>
+      </c>
+      <c r="G4">
+        <v>0.07953699854753281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0149645174933288</v>
+        <v>0.03831341322205196</v>
       </c>
       <c r="C6">
-        <v>-0.004739131389959184</v>
+        <v>-0.05312115005909118</v>
       </c>
       <c r="D6">
-        <v>-0.08516655840475704</v>
+        <v>0.01659264784293146</v>
       </c>
       <c r="E6">
-        <v>0.008704827190078743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02519030282260147</v>
+      </c>
+      <c r="F6">
+        <v>0.01155998531647198</v>
+      </c>
+      <c r="G6">
+        <v>0.05996377371834959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01121658882213511</v>
+        <v>0.02052900785551876</v>
       </c>
       <c r="C7">
-        <v>-0.006745790351712446</v>
+        <v>-0.04121546806617962</v>
       </c>
       <c r="D7">
-        <v>-0.04129291037401488</v>
+        <v>0.01306070562172278</v>
       </c>
       <c r="E7">
-        <v>0.05999625562466706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.006350561851988076</v>
+      </c>
+      <c r="F7">
+        <v>-0.006302849513939435</v>
+      </c>
+      <c r="G7">
+        <v>0.1157113881568103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1.964476805546827e-05</v>
+        <v>0.001436776454469886</v>
       </c>
       <c r="C8">
-        <v>0.003384821817315887</v>
+        <v>-0.02390162467927959</v>
       </c>
       <c r="D8">
-        <v>-0.004988597523614848</v>
+        <v>0.004138160304244927</v>
       </c>
       <c r="E8">
-        <v>0.008059197793273725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02126287142715753</v>
+      </c>
+      <c r="F8">
+        <v>0.008236955561591637</v>
+      </c>
+      <c r="G8">
+        <v>0.05771777004117892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01631319955479478</v>
+        <v>0.03439807662651393</v>
       </c>
       <c r="C9">
-        <v>-0.01387377391694496</v>
+        <v>-0.04647600145159207</v>
       </c>
       <c r="D9">
-        <v>-0.05560545177560208</v>
+        <v>0.01649630201760749</v>
       </c>
       <c r="E9">
-        <v>0.003847454789035223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01589249334900659</v>
+      </c>
+      <c r="F9">
+        <v>0.01152529404842043</v>
+      </c>
+      <c r="G9">
+        <v>0.08303866219571676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02354938281983036</v>
+        <v>0.09529550617396533</v>
       </c>
       <c r="C10">
-        <v>-0.1709363338338219</v>
+        <v>0.182830588486998</v>
       </c>
       <c r="D10">
-        <v>0.09280839042041455</v>
+        <v>-0.01577780989216331</v>
       </c>
       <c r="E10">
-        <v>-0.01136862091408931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01673254360402721</v>
+      </c>
+      <c r="F10">
+        <v>-0.02170694641563039</v>
+      </c>
+      <c r="G10">
+        <v>0.05168950114906181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0004804249307362541</v>
+        <v>0.03491710017551807</v>
       </c>
       <c r="C11">
-        <v>-0.002474721294343908</v>
+        <v>-0.05427624699888529</v>
       </c>
       <c r="D11">
-        <v>-0.04386369437288179</v>
+        <v>0.002493990817035337</v>
       </c>
       <c r="E11">
-        <v>-0.006192634544784695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008236308136598439</v>
+      </c>
+      <c r="F11">
+        <v>0.02173926670544306</v>
+      </c>
+      <c r="G11">
+        <v>0.0644374853103209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006267801898835608</v>
+        <v>0.03646851066949435</v>
       </c>
       <c r="C12">
-        <v>-0.009230230181415222</v>
+        <v>-0.04865637716703366</v>
       </c>
       <c r="D12">
-        <v>-0.04833967328647449</v>
+        <v>0.006226147005525212</v>
       </c>
       <c r="E12">
-        <v>0.005758914009026539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0001127941653911652</v>
+      </c>
+      <c r="F12">
+        <v>0.001353399634767809</v>
+      </c>
+      <c r="G12">
+        <v>0.06046715178614723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02393476621856197</v>
+        <v>0.01536127895344448</v>
       </c>
       <c r="C13">
-        <v>-0.01723137785263984</v>
+        <v>-0.03673304796532528</v>
       </c>
       <c r="D13">
-        <v>-0.004164585816447393</v>
+        <v>0.02611664369010552</v>
       </c>
       <c r="E13">
-        <v>-0.009207543316619863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02846904914900585</v>
+      </c>
+      <c r="F13">
+        <v>0.007071428152837184</v>
+      </c>
+      <c r="G13">
+        <v>0.09587243603956298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0085898055149539</v>
+        <v>0.007909005341851407</v>
       </c>
       <c r="C14">
-        <v>-0.01408717345554468</v>
+        <v>-0.02682885555971709</v>
       </c>
       <c r="D14">
-        <v>-0.00905773356266148</v>
+        <v>0.009418213116761453</v>
       </c>
       <c r="E14">
-        <v>0.0078604103120281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.000162698845220616</v>
+      </c>
+      <c r="F14">
+        <v>-0.007134893605659871</v>
+      </c>
+      <c r="G14">
+        <v>0.08131290487259267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001454266568451532</v>
+        <v>0.03357738530146528</v>
       </c>
       <c r="C16">
-        <v>-0.008763195311003278</v>
+        <v>-0.04850013783187107</v>
       </c>
       <c r="D16">
-        <v>-0.04978740000855523</v>
+        <v>0.002019321312983184</v>
       </c>
       <c r="E16">
-        <v>0.004976133440537523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007325937361852353</v>
+      </c>
+      <c r="F16">
+        <v>0.002529600943425414</v>
+      </c>
+      <c r="G16">
+        <v>0.06695450200624213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01505569360981028</v>
+        <v>0.02146315402469266</v>
       </c>
       <c r="C19">
-        <v>-0.0189405577262667</v>
+        <v>-0.04920695031991951</v>
       </c>
       <c r="D19">
-        <v>-0.02362499678473734</v>
+        <v>0.01843790931555899</v>
       </c>
       <c r="E19">
-        <v>0.005341078034895479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06432292423045642</v>
+      </c>
+      <c r="F19">
+        <v>0.021565921069014</v>
+      </c>
+      <c r="G19">
+        <v>0.1100189332994962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01069837319128525</v>
+        <v>0.01504041497772693</v>
       </c>
       <c r="C20">
-        <v>-0.00513372083448906</v>
+        <v>-0.0373154418009659</v>
       </c>
       <c r="D20">
-        <v>-0.01614031648375026</v>
+        <v>0.01396297254942808</v>
       </c>
       <c r="E20">
-        <v>-0.01086235225674327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02655929131333826</v>
+      </c>
+      <c r="F20">
+        <v>-0.01029173998592894</v>
+      </c>
+      <c r="G20">
+        <v>0.0868023831845799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01494873894874712</v>
+        <v>0.01339716678393441</v>
       </c>
       <c r="C21">
-        <v>-0.01751273617115741</v>
+        <v>-0.03830437368586777</v>
       </c>
       <c r="D21">
-        <v>-0.02397442196691872</v>
+        <v>0.01805091483344492</v>
       </c>
       <c r="E21">
-        <v>0.0101797914189866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03959468452237905</v>
+      </c>
+      <c r="F21">
+        <v>0.0005185994106625283</v>
+      </c>
+      <c r="G21">
+        <v>0.1161361497972156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-6.377098190164901e-05</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-8.352683446225412e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>9.107361262520203e-06</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>9.462887852571752e-05</v>
+      </c>
+      <c r="F22">
+        <v>-2.298211198759725e-05</v>
+      </c>
+      <c r="G22">
+        <v>-0.0001490956548332302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-6.377098190164901e-05</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-8.352683446225412e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9.107361262520203e-06</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>9.462887852571752e-05</v>
+      </c>
+      <c r="F23">
+        <v>-2.298211198759725e-05</v>
+      </c>
+      <c r="G23">
+        <v>-0.0001490956548332302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004371390019147233</v>
+        <v>0.02820272592908312</v>
       </c>
       <c r="C24">
-        <v>0.002125643476635926</v>
+        <v>-0.05130242252046856</v>
       </c>
       <c r="D24">
-        <v>-0.04463817945001425</v>
+        <v>0.007338929017000817</v>
       </c>
       <c r="E24">
-        <v>0.0006931567046491771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004403908542348013</v>
+      </c>
+      <c r="F24">
+        <v>0.01407153419742222</v>
+      </c>
+      <c r="G24">
+        <v>0.06837467991828601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01237773385260823</v>
+        <v>0.04288212171560678</v>
       </c>
       <c r="C25">
-        <v>-0.01498432727826083</v>
+        <v>-0.0582027498302773</v>
       </c>
       <c r="D25">
-        <v>-0.04713801703605203</v>
+        <v>0.01137200416283169</v>
       </c>
       <c r="E25">
-        <v>0.001114526310923757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001868879464117714</v>
+      </c>
+      <c r="F25">
+        <v>0.00837800879219708</v>
+      </c>
+      <c r="G25">
+        <v>0.07578865832209493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02356023292831807</v>
+        <v>0.01463532754379581</v>
       </c>
       <c r="C26">
-        <v>-0.01047948187939805</v>
+        <v>-0.009202466416079788</v>
       </c>
       <c r="D26">
-        <v>0.003434318606706374</v>
+        <v>0.02359263993617006</v>
       </c>
       <c r="E26">
-        <v>0.008997453556632078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004943863176459504</v>
+      </c>
+      <c r="F26">
+        <v>-0.00926604908363287</v>
+      </c>
+      <c r="G26">
+        <v>0.06504374216605514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04771209683133919</v>
+        <v>0.1226988332311102</v>
       </c>
       <c r="C28">
-        <v>-0.2469541284539552</v>
+        <v>0.2367264663050563</v>
       </c>
       <c r="D28">
-        <v>0.1382929373373932</v>
+        <v>-0.006762654324372256</v>
       </c>
       <c r="E28">
-        <v>0.01134122123363483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.004175732323413817</v>
+      </c>
+      <c r="F28">
+        <v>-0.01631876436970566</v>
+      </c>
+      <c r="G28">
+        <v>0.06731543808935578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00911891030018901</v>
+        <v>0.009739902415246398</v>
       </c>
       <c r="C29">
-        <v>-0.01918766375417172</v>
+        <v>-0.0200400455609478</v>
       </c>
       <c r="D29">
-        <v>-0.007048508770677228</v>
+        <v>0.008206312003643272</v>
       </c>
       <c r="E29">
-        <v>0.003388158064020544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001591721733345773</v>
+      </c>
+      <c r="F29">
+        <v>-0.01645792162442647</v>
+      </c>
+      <c r="G29">
+        <v>0.07295161670157878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02397716881030359</v>
+        <v>0.04313976885800119</v>
       </c>
       <c r="C30">
-        <v>0.0006566104310472064</v>
+        <v>-0.06570077254336865</v>
       </c>
       <c r="D30">
-        <v>-0.0590059390650832</v>
+        <v>0.0290183913389804</v>
       </c>
       <c r="E30">
-        <v>-0.04717162148466605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05111963731065959</v>
+      </c>
+      <c r="F30">
+        <v>0.04994131082479052</v>
+      </c>
+      <c r="G30">
+        <v>0.08516504897457991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01004114019981915</v>
+        <v>0.05271917616064815</v>
       </c>
       <c r="C31">
-        <v>-0.03880429789082997</v>
+        <v>-0.03570266605458373</v>
       </c>
       <c r="D31">
-        <v>-0.04685313980160487</v>
+        <v>0.003324587956353427</v>
       </c>
       <c r="E31">
-        <v>0.01000385170773787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.005114463781172173</v>
+      </c>
+      <c r="F31">
+        <v>-0.04158675956569492</v>
+      </c>
+      <c r="G31">
+        <v>0.06983884322048274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005019605814074486</v>
+        <v>0.001025406688371465</v>
       </c>
       <c r="C32">
-        <v>-0.02123742515500369</v>
+        <v>-0.02263100445476669</v>
       </c>
       <c r="D32">
-        <v>0.006407155340387139</v>
+        <v>-0.003841265233051724</v>
       </c>
       <c r="E32">
-        <v>0.05053063005417892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01624667532584335</v>
+      </c>
+      <c r="F32">
+        <v>0.03991297874354222</v>
+      </c>
+      <c r="G32">
+        <v>0.1001455213787502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01410747355225756</v>
+        <v>0.02802307001433736</v>
       </c>
       <c r="C33">
-        <v>-0.02224496313076536</v>
+        <v>-0.04814249020451656</v>
       </c>
       <c r="D33">
-        <v>-0.03172634778566744</v>
+        <v>0.01536700180068889</v>
       </c>
       <c r="E33">
-        <v>-0.03003571687551588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03272613662809809</v>
+      </c>
+      <c r="F33">
+        <v>0.0191676724943722</v>
+      </c>
+      <c r="G33">
+        <v>0.1071589248238389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004074315628628871</v>
+        <v>0.04014722773932358</v>
       </c>
       <c r="C34">
-        <v>-0.01501472835873726</v>
+        <v>-0.06293300304510537</v>
       </c>
       <c r="D34">
-        <v>-0.05190011561886855</v>
+        <v>-0.004380305134171485</v>
       </c>
       <c r="E34">
-        <v>0.009214255218339488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001387782632077426</v>
+      </c>
+      <c r="F34">
+        <v>0.02113873175630769</v>
+      </c>
+      <c r="G34">
+        <v>0.07609794873117354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01332784855797556</v>
+        <v>0.01537690051896538</v>
       </c>
       <c r="C36">
-        <v>-0.01968823465962164</v>
+        <v>-0.008142917418969258</v>
       </c>
       <c r="D36">
-        <v>-0.003922507311894899</v>
+        <v>0.0117950669100242</v>
       </c>
       <c r="E36">
-        <v>0.003361253455080722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00129415848117469</v>
+      </c>
+      <c r="F36">
+        <v>-0.007980552290854228</v>
+      </c>
+      <c r="G36">
+        <v>0.06325270384806102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003117248749914355</v>
+        <v>0.03241594322459286</v>
       </c>
       <c r="C38">
-        <v>-0.0308599900502709</v>
+        <v>-0.03150563897632473</v>
       </c>
       <c r="D38">
-        <v>-0.04307334282094059</v>
+        <v>-0.00760119858349131</v>
       </c>
       <c r="E38">
-        <v>0.00548391514274579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002635784534678375</v>
+      </c>
+      <c r="F38">
+        <v>-0.01843373313834364</v>
+      </c>
+      <c r="G38">
+        <v>0.06583587136363137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00411705787864661</v>
+        <v>0.03555215096835136</v>
       </c>
       <c r="C39">
-        <v>0.02395325090059904</v>
+        <v>-0.08035939257516925</v>
       </c>
       <c r="D39">
-        <v>-0.0859314276094356</v>
+        <v>0.01192227571862928</v>
       </c>
       <c r="E39">
-        <v>-0.01054794862465712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01941777830858275</v>
+      </c>
+      <c r="F39">
+        <v>0.02771463834112057</v>
+      </c>
+      <c r="G39">
+        <v>0.06592578541214612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01232443602189341</v>
+        <v>0.01572874671549283</v>
       </c>
       <c r="C40">
-        <v>-0.01502210946746423</v>
+        <v>-0.04185890425858987</v>
       </c>
       <c r="D40">
-        <v>-0.02720059438916497</v>
+        <v>0.01506103683031997</v>
       </c>
       <c r="E40">
-        <v>0.002221631482941188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02129322867991986</v>
+      </c>
+      <c r="F40">
+        <v>-0.01359022706508062</v>
+      </c>
+      <c r="G40">
+        <v>0.1066290649958321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006645644156400867</v>
+        <v>0.01911980542164653</v>
       </c>
       <c r="C41">
-        <v>-0.02171036611177996</v>
+        <v>0.0007056084501367676</v>
       </c>
       <c r="D41">
-        <v>0.00862526669241381</v>
+        <v>0.003708724773669183</v>
       </c>
       <c r="E41">
-        <v>0.002945867986006924</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0002232405945556508</v>
+      </c>
+      <c r="F41">
+        <v>-0.0106499307708796</v>
+      </c>
+      <c r="G41">
+        <v>0.04873503696445682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09297040523300035</v>
+        <v>0.01033141725733183</v>
       </c>
       <c r="C42">
-        <v>0.02406538540887948</v>
+        <v>-0.03746986565840291</v>
       </c>
       <c r="D42">
-        <v>-0.2666708837413825</v>
+        <v>0.09340312763433792</v>
       </c>
       <c r="E42">
-        <v>-0.4168625116200432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02828568276273481</v>
+      </c>
+      <c r="F42">
+        <v>-0.03570228915409922</v>
+      </c>
+      <c r="G42">
+        <v>-0.1551308100791166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008000231709133452</v>
+        <v>0.03388370423835712</v>
       </c>
       <c r="C43">
-        <v>-0.02573586704407952</v>
+        <v>-0.0133470295173361</v>
       </c>
       <c r="D43">
-        <v>0.005725017848745135</v>
+        <v>0.005396770656173526</v>
       </c>
       <c r="E43">
-        <v>-0.002265762771143369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01280551474127689</v>
+      </c>
+      <c r="F43">
+        <v>-0.003490426939708592</v>
+      </c>
+      <c r="G43">
+        <v>0.07309426883215438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002373374285076377</v>
+        <v>0.01282276168434406</v>
       </c>
       <c r="C44">
-        <v>-9.810067929671892e-05</v>
+        <v>-0.05517587455370569</v>
       </c>
       <c r="D44">
-        <v>-0.03536753702863819</v>
+        <v>0.006646500070810527</v>
       </c>
       <c r="E44">
-        <v>0.006102046902002852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01756849247158243</v>
+      </c>
+      <c r="F44">
+        <v>-0.009431992177502407</v>
+      </c>
+      <c r="G44">
+        <v>0.08903562327770079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01134411252350461</v>
+        <v>0.007619146108895085</v>
       </c>
       <c r="C46">
-        <v>-0.01373762093701923</v>
+        <v>-0.01534489415802699</v>
       </c>
       <c r="D46">
-        <v>-0.01073215277551618</v>
+        <v>0.01192309801510395</v>
       </c>
       <c r="E46">
-        <v>-0.001170807722581013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001397626177103517</v>
+      </c>
+      <c r="F46">
+        <v>-0.01564510112023595</v>
+      </c>
+      <c r="G46">
+        <v>0.07269309964898531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004767584062188721</v>
+        <v>0.07815790781895225</v>
       </c>
       <c r="C47">
-        <v>-0.04874461292001245</v>
+        <v>-0.06481364175952609</v>
       </c>
       <c r="D47">
-        <v>-0.07132247100562839</v>
+        <v>-0.005319476287445149</v>
       </c>
       <c r="E47">
-        <v>0.004824035104848805</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009280499347035459</v>
+      </c>
+      <c r="F47">
+        <v>-0.05554608138744577</v>
+      </c>
+      <c r="G47">
+        <v>0.06415339237995565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004289710033460186</v>
+        <v>0.0207082623512322</v>
       </c>
       <c r="C48">
-        <v>-0.02422734150725568</v>
+        <v>-0.01094994897885434</v>
       </c>
       <c r="D48">
-        <v>-0.01661900874311495</v>
+        <v>0.001122629250383903</v>
       </c>
       <c r="E48">
-        <v>0.002955377600993904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001655475923038117</v>
+      </c>
+      <c r="F48">
+        <v>-0.02218562926452345</v>
+      </c>
+      <c r="G48">
+        <v>0.06837830120269107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007001389110397615</v>
+        <v>0.07613570481515922</v>
       </c>
       <c r="C50">
-        <v>-0.05195607492344301</v>
+        <v>-0.06808403750150405</v>
       </c>
       <c r="D50">
-        <v>-0.06982247303292988</v>
+        <v>-0.002938786593641566</v>
       </c>
       <c r="E50">
-        <v>0.03257474267502995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009354946111169318</v>
+      </c>
+      <c r="F50">
+        <v>-0.05988204951224878</v>
+      </c>
+      <c r="G50">
+        <v>0.08419997543786636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007577478632716157</v>
+        <v>0.01406731743340385</v>
       </c>
       <c r="C51">
-        <v>-0.01434490938849385</v>
+        <v>-0.03390062598961639</v>
       </c>
       <c r="D51">
-        <v>-0.004853620996276503</v>
+        <v>0.01002348750125621</v>
       </c>
       <c r="E51">
-        <v>0.005297755574378074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01614637080057968</v>
+      </c>
+      <c r="F51">
+        <v>0.02357015478089387</v>
+      </c>
+      <c r="G51">
+        <v>0.1042114643760466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007989717212823249</v>
+        <v>0.0825972993028453</v>
       </c>
       <c r="C53">
-        <v>-0.05998528054286054</v>
+        <v>-0.08362917024860869</v>
       </c>
       <c r="D53">
-        <v>-0.1282326225408189</v>
+        <v>-0.004179795164640094</v>
       </c>
       <c r="E53">
-        <v>0.01255271012713494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02829838014379418</v>
+      </c>
+      <c r="F53">
+        <v>-0.06600642990847491</v>
+      </c>
+      <c r="G53">
+        <v>0.06257569215026126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002027078171037183</v>
+        <v>0.0295445032154592</v>
       </c>
       <c r="C54">
-        <v>-0.03473877000065517</v>
+        <v>-0.01417011104489564</v>
       </c>
       <c r="D54">
-        <v>0.006077397528485348</v>
+        <v>-0.001843137901102742</v>
       </c>
       <c r="E54">
-        <v>0.0009935899071261164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.008947971619993406</v>
+      </c>
+      <c r="F54">
+        <v>-0.001541719730521417</v>
+      </c>
+      <c r="G54">
+        <v>0.07545510328973135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004046676051784858</v>
+        <v>0.07227869740869387</v>
       </c>
       <c r="C55">
-        <v>-0.03960813640237813</v>
+        <v>-0.068827749337947</v>
       </c>
       <c r="D55">
-        <v>-0.1058673256386466</v>
+        <v>-0.0053881493170483</v>
       </c>
       <c r="E55">
-        <v>-0.0008692130103382285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02424828459820312</v>
+      </c>
+      <c r="F55">
+        <v>-0.06225109031472059</v>
+      </c>
+      <c r="G55">
+        <v>0.03846665205946897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007211036990234392</v>
+        <v>0.1389162781194782</v>
       </c>
       <c r="C56">
-        <v>-0.08316914286370217</v>
+        <v>-0.1082011267376305</v>
       </c>
       <c r="D56">
-        <v>-0.1658777982658164</v>
+        <v>-0.01253903334088775</v>
       </c>
       <c r="E56">
-        <v>0.001578819293321011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03161818573689579</v>
+      </c>
+      <c r="F56">
+        <v>-0.08013428597377785</v>
+      </c>
+      <c r="G56">
+        <v>0.01503641133459284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02331819160883266</v>
+        <v>0.0070075179373564</v>
       </c>
       <c r="C57">
-        <v>-0.007280984707174864</v>
+        <v>-0.00911402761143584</v>
       </c>
       <c r="D57">
-        <v>-0.04620494024255838</v>
+        <v>0.02359082570684716</v>
       </c>
       <c r="E57">
-        <v>-0.003183427969308681</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02385542799205457</v>
+      </c>
+      <c r="F57">
+        <v>0.009448668956650402</v>
+      </c>
+      <c r="G57">
+        <v>0.02835131157178136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01694661068404458</v>
+        <v>0.06247482688716484</v>
       </c>
       <c r="C58">
-        <v>-0.07555438133255907</v>
+        <v>-0.0464974029085963</v>
       </c>
       <c r="D58">
-        <v>-0.137670229379861</v>
+        <v>0.02891037453089993</v>
       </c>
       <c r="E58">
-        <v>-0.4162876026094983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9388088061360564</v>
+      </c>
+      <c r="F58">
+        <v>-0.2265036432554884</v>
+      </c>
+      <c r="G58">
+        <v>-0.1112497687532917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04514698059834595</v>
+        <v>0.1577034864897496</v>
       </c>
       <c r="C59">
-        <v>-0.2602207398820781</v>
+        <v>0.2040204817580944</v>
       </c>
       <c r="D59">
-        <v>0.1388947039873238</v>
+        <v>-0.01212961660145648</v>
       </c>
       <c r="E59">
-        <v>0.005016713104174022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01528143378571666</v>
+      </c>
+      <c r="F59">
+        <v>-0.0008370934868546043</v>
+      </c>
+      <c r="G59">
+        <v>0.04169467107976364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04441649517021535</v>
+        <v>0.2878491708652113</v>
       </c>
       <c r="C60">
-        <v>-0.1620859728256414</v>
+        <v>-0.1006982356837201</v>
       </c>
       <c r="D60">
-        <v>-0.08752416318195488</v>
+        <v>0.01285802547279136</v>
       </c>
       <c r="E60">
-        <v>0.003695015640191629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002107849589659052</v>
+      </c>
+      <c r="F60">
+        <v>0.3511143258159035</v>
+      </c>
+      <c r="G60">
+        <v>-0.1231846568466376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00314829007671777</v>
+        <v>0.03765969287093189</v>
       </c>
       <c r="C61">
-        <v>-0.003817034780107908</v>
+        <v>-0.06681330010194678</v>
       </c>
       <c r="D61">
-        <v>-0.06227551926111459</v>
+        <v>0.005286072767583219</v>
       </c>
       <c r="E61">
-        <v>0.002377433895034193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01170019166294356</v>
+      </c>
+      <c r="F61">
+        <v>0.01532381870909487</v>
+      </c>
+      <c r="G61">
+        <v>0.06674942353786442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008050331943537499</v>
+        <v>0.01424323547822537</v>
       </c>
       <c r="C63">
-        <v>-0.007197205935396667</v>
+        <v>-0.02912632560777326</v>
       </c>
       <c r="D63">
-        <v>-0.01226767495190212</v>
+        <v>0.0081937559817933</v>
       </c>
       <c r="E63">
-        <v>0.01014668118670031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001244635984636811</v>
+      </c>
+      <c r="F63">
+        <v>-0.01819177001000994</v>
+      </c>
+      <c r="G63">
+        <v>0.07283833658567213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009257955833357175</v>
+        <v>0.04819446163139601</v>
       </c>
       <c r="C64">
-        <v>-0.02599389512427347</v>
+        <v>-0.04620486701915438</v>
       </c>
       <c r="D64">
-        <v>-0.06424668832817476</v>
+        <v>0.006343748754240431</v>
       </c>
       <c r="E64">
-        <v>-0.01434283961695722</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0008089267289692502</v>
+      </c>
+      <c r="F64">
+        <v>0.007062123884800382</v>
+      </c>
+      <c r="G64">
+        <v>0.06169888085123908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01693958107386494</v>
+        <v>0.07712574099741946</v>
       </c>
       <c r="C65">
-        <v>-0.003682444685972458</v>
+        <v>-0.05948089149748822</v>
       </c>
       <c r="D65">
-        <v>-0.1001012579765783</v>
+        <v>0.01644257456797547</v>
       </c>
       <c r="E65">
-        <v>0.01179424701344082</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02745006843884504</v>
+      </c>
+      <c r="F65">
+        <v>0.03082287136043502</v>
+      </c>
+      <c r="G65">
+        <v>0.02648262303716816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.003930452718335683</v>
+        <v>0.05149287840720987</v>
       </c>
       <c r="C66">
-        <v>0.01987540616585535</v>
+        <v>-0.1102981170130874</v>
       </c>
       <c r="D66">
-        <v>-0.1093833946456663</v>
+        <v>0.01192981720825395</v>
       </c>
       <c r="E66">
-        <v>-0.007597337708637209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02683741256936175</v>
+      </c>
+      <c r="F66">
+        <v>0.03724587335047629</v>
+      </c>
+      <c r="G66">
+        <v>0.0769974126039161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003839810846199338</v>
+        <v>0.05503405619477685</v>
       </c>
       <c r="C67">
-        <v>-0.05288728591672555</v>
+        <v>-0.03466383669594326</v>
       </c>
       <c r="D67">
-        <v>-0.04994512433330325</v>
+        <v>-0.00585265665282736</v>
       </c>
       <c r="E67">
-        <v>0.006676599566340917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003739466145007664</v>
+      </c>
+      <c r="F67">
+        <v>-0.01864965868066213</v>
+      </c>
+      <c r="G67">
+        <v>0.05975442472572531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06170479439539422</v>
+        <v>0.1467796829485024</v>
       </c>
       <c r="C68">
-        <v>-0.2399360999836602</v>
+        <v>0.2683308387646758</v>
       </c>
       <c r="D68">
-        <v>0.1511214497866734</v>
+        <v>0.005487805713749994</v>
       </c>
       <c r="E68">
-        <v>-0.01567882438643635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01122826753108782</v>
+      </c>
+      <c r="F68">
+        <v>-0.03239079807397112</v>
+      </c>
+      <c r="G68">
+        <v>0.02390638185031063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0004894698897154602</v>
+        <v>0.08180625952940015</v>
       </c>
       <c r="C69">
-        <v>-0.03822097791271536</v>
+        <v>-0.06775531608389521</v>
       </c>
       <c r="D69">
-        <v>-0.07118104256861239</v>
+        <v>-0.009455813173949279</v>
       </c>
       <c r="E69">
-        <v>0.01047106978229966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02629686975468455</v>
+      </c>
+      <c r="F69">
+        <v>-0.03876298629101766</v>
+      </c>
+      <c r="G69">
+        <v>0.06644786628349132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04586628678621501</v>
+        <v>0.135206693418025</v>
       </c>
       <c r="C71">
-        <v>-0.2091596977442599</v>
+        <v>0.2293209524415584</v>
       </c>
       <c r="D71">
-        <v>0.1207157759370285</v>
+        <v>-0.003250865815605629</v>
       </c>
       <c r="E71">
-        <v>-0.009184806419166887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03023156452795499</v>
+      </c>
+      <c r="F71">
+        <v>-0.01653518766810588</v>
+      </c>
+      <c r="G71">
+        <v>0.05638896971363427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0004564505320996845</v>
+        <v>0.0865970739694439</v>
       </c>
       <c r="C72">
-        <v>-0.03781214697657592</v>
+        <v>-0.0706474998133142</v>
       </c>
       <c r="D72">
-        <v>-0.1165968570751716</v>
+        <v>-0.00792909982508329</v>
       </c>
       <c r="E72">
-        <v>0.005967136164841605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00259662632714583</v>
+      </c>
+      <c r="F72">
+        <v>0.04279184556928504</v>
+      </c>
+      <c r="G72">
+        <v>0.0624153507960937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05622109780782101</v>
+        <v>0.3801214705993919</v>
       </c>
       <c r="C73">
-        <v>-0.1729762270452167</v>
+        <v>-0.1113615456544586</v>
       </c>
       <c r="D73">
-        <v>-0.1692538620602751</v>
+        <v>0.02202337012883742</v>
       </c>
       <c r="E73">
-        <v>-0.03453824865153122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06301473582449232</v>
+      </c>
+      <c r="F73">
+        <v>0.5733476146688523</v>
+      </c>
+      <c r="G73">
+        <v>-0.2061512455236564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.004006213318900022</v>
+        <v>0.1074676233789274</v>
       </c>
       <c r="C74">
-        <v>-0.06786366710698165</v>
+        <v>-0.1101609123286189</v>
       </c>
       <c r="D74">
-        <v>-0.1632771439093235</v>
+        <v>-0.009747879948902943</v>
       </c>
       <c r="E74">
-        <v>-0.009070543898630445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01041243606548785</v>
+      </c>
+      <c r="F74">
+        <v>-0.07163187060706085</v>
+      </c>
+      <c r="G74">
+        <v>0.05977343215305851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01403320465003306</v>
+        <v>0.2516816372878067</v>
       </c>
       <c r="C75">
-        <v>-0.1662978165873803</v>
+        <v>-0.1484832995420905</v>
       </c>
       <c r="D75">
-        <v>-0.3020693005135287</v>
+        <v>-0.03080750671867007</v>
       </c>
       <c r="E75">
-        <v>-0.01443244957254565</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05579355792980228</v>
+      </c>
+      <c r="F75">
+        <v>-0.1757976634953684</v>
+      </c>
+      <c r="G75">
+        <v>-0.05833058774324539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001561546474993647</v>
+        <v>0.1227906923769684</v>
       </c>
       <c r="C76">
-        <v>-0.1043065683017458</v>
+        <v>-0.1129954786351182</v>
       </c>
       <c r="D76">
-        <v>-0.2318041877154834</v>
+        <v>-0.02013926870045655</v>
       </c>
       <c r="E76">
-        <v>0.03421541854812558</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03946486002255525</v>
+      </c>
+      <c r="F76">
+        <v>-0.1165626029820687</v>
+      </c>
+      <c r="G76">
+        <v>0.03689035420399141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01427561684087439</v>
+        <v>0.06683038550467572</v>
       </c>
       <c r="C77">
-        <v>-0.01892277652951426</v>
+        <v>-0.06058277698514738</v>
       </c>
       <c r="D77">
-        <v>-0.03567941826921243</v>
+        <v>0.01275623280992649</v>
       </c>
       <c r="E77">
-        <v>-0.01791342605795936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04992386509825866</v>
+      </c>
+      <c r="F77">
+        <v>0.0140870726833588</v>
+      </c>
+      <c r="G77">
+        <v>0.06155346051314179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00656454928180501</v>
+        <v>0.04471967564795844</v>
       </c>
       <c r="C78">
-        <v>-0.01968659411038721</v>
+        <v>-0.04918202596194227</v>
       </c>
       <c r="D78">
-        <v>-0.04065728426346096</v>
+        <v>0.005494593281685323</v>
       </c>
       <c r="E78">
-        <v>-0.004017117430460438</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02199219556973839</v>
+      </c>
+      <c r="F78">
+        <v>0.03669933851539445</v>
+      </c>
+      <c r="G78">
+        <v>0.07041872875134254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01740070572840925</v>
+        <v>0.05665795794437131</v>
       </c>
       <c r="C80">
-        <v>-0.08021303938958461</v>
+        <v>-0.07001020458026629</v>
       </c>
       <c r="D80">
-        <v>-0.2219832670857333</v>
+        <v>0.01032322146202323</v>
       </c>
       <c r="E80">
-        <v>0.782101014789538</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02602186575865481</v>
+      </c>
+      <c r="F80">
+        <v>-0.0007081638352617858</v>
+      </c>
+      <c r="G80">
+        <v>0.6207935232420178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008996691029530617</v>
+        <v>0.1399950750968971</v>
       </c>
       <c r="C81">
-        <v>-0.09908854167211617</v>
+        <v>-0.09571290924204716</v>
       </c>
       <c r="D81">
-        <v>-0.1716799201307327</v>
+        <v>-0.01525108298346428</v>
       </c>
       <c r="E81">
-        <v>0.01379038681325291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03330021500440243</v>
+      </c>
+      <c r="F81">
+        <v>-0.1325339908317717</v>
+      </c>
+      <c r="G81">
+        <v>0.01958632216953621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1229975697584863</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06926841505514336</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00737768583708755</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08639891068968028</v>
+      </c>
+      <c r="F82">
+        <v>-0.0334939966995002</v>
+      </c>
+      <c r="G82">
+        <v>0.02947295488479349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007319674354013529</v>
+        <v>0.03681686733699926</v>
       </c>
       <c r="C83">
-        <v>-0.01935041171644186</v>
+        <v>-0.02653908380608463</v>
       </c>
       <c r="D83">
-        <v>-0.02042765876174373</v>
+        <v>0.005532745325769261</v>
       </c>
       <c r="E83">
-        <v>-0.0005367517392371525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02520124028575278</v>
+      </c>
+      <c r="F83">
+        <v>0.03445119185000681</v>
+      </c>
+      <c r="G83">
+        <v>0.04755049823241286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02034775541430532</v>
+        <v>0.2173105794335489</v>
       </c>
       <c r="C85">
-        <v>-0.1324086479087288</v>
+        <v>-0.1453005333955449</v>
       </c>
       <c r="D85">
-        <v>-0.2733196955747388</v>
+        <v>-0.01863761019545944</v>
       </c>
       <c r="E85">
-        <v>-0.007566511664302535</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09557305575006919</v>
+      </c>
+      <c r="F85">
+        <v>-0.1376050773294915</v>
+      </c>
+      <c r="G85">
+        <v>-0.1133072061732113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009935142861164236</v>
+        <v>0.01443943170928601</v>
       </c>
       <c r="C86">
-        <v>-0.03030232975731922</v>
+        <v>-0.02544359452986561</v>
       </c>
       <c r="D86">
-        <v>-0.009007495839729346</v>
+        <v>0.01203019279437479</v>
       </c>
       <c r="E86">
-        <v>-0.03511872059315698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04402304881834806</v>
+      </c>
+      <c r="F86">
+        <v>0.03422019584105733</v>
+      </c>
+      <c r="G86">
+        <v>0.1574056774588077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008925525056462024</v>
+        <v>0.0245403203907501</v>
       </c>
       <c r="C87">
-        <v>-0.008745489249763122</v>
+        <v>-0.02112315867489783</v>
       </c>
       <c r="D87">
-        <v>-0.04122985034829963</v>
+        <v>0.01208667239716608</v>
       </c>
       <c r="E87">
-        <v>-0.008218464483400753</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08317594272012178</v>
+      </c>
+      <c r="F87">
+        <v>0.02222422848837309</v>
+      </c>
+      <c r="G87">
+        <v>0.102412495361557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02789070966449422</v>
+        <v>0.09133570445709029</v>
       </c>
       <c r="C88">
-        <v>-0.02789588936874353</v>
+        <v>-0.06505265418755234</v>
       </c>
       <c r="D88">
-        <v>-0.03692064451562452</v>
+        <v>0.02239459464480394</v>
       </c>
       <c r="E88">
-        <v>0.001143193287426595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01031564111217107</v>
+      </c>
+      <c r="F88">
+        <v>-0.02091821127086878</v>
+      </c>
+      <c r="G88">
+        <v>0.04937446156510525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08771773148032111</v>
+        <v>0.2260853032230555</v>
       </c>
       <c r="C89">
-        <v>-0.3895768716262549</v>
+        <v>0.3732758134771996</v>
       </c>
       <c r="D89">
-        <v>0.2139940297442823</v>
+        <v>-0.001816897008024303</v>
       </c>
       <c r="E89">
-        <v>0.01717924108372096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02090110197915592</v>
+      </c>
+      <c r="F89">
+        <v>-0.03651262626200941</v>
+      </c>
+      <c r="G89">
+        <v>0.05398210416500993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0667230112802422</v>
+        <v>0.2024425678592792</v>
       </c>
       <c r="C90">
-        <v>-0.3015097538191968</v>
+        <v>0.3228873642998059</v>
       </c>
       <c r="D90">
-        <v>0.1903233160360001</v>
+        <v>-0.006045767149046109</v>
       </c>
       <c r="E90">
-        <v>-0.01655536435893545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.00814073575222753</v>
+      </c>
+      <c r="F90">
+        <v>-0.05141133260288862</v>
+      </c>
+      <c r="G90">
+        <v>0.01339065942670422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.009558468632851168</v>
+        <v>0.1909243929465571</v>
       </c>
       <c r="C91">
-        <v>-0.1423959546405435</v>
+        <v>-0.140588147186454</v>
       </c>
       <c r="D91">
-        <v>-0.2306208295756674</v>
+        <v>-0.02332301187346728</v>
       </c>
       <c r="E91">
-        <v>0.01409348842829108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06705350820596132</v>
+      </c>
+      <c r="F91">
+        <v>-0.1510987731080495</v>
+      </c>
+      <c r="G91">
+        <v>0.008784915308705918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03360547015185693</v>
+        <v>0.1994744248911027</v>
       </c>
       <c r="C92">
-        <v>-0.3128807796527444</v>
+        <v>0.2635700771634346</v>
       </c>
       <c r="D92">
-        <v>0.08497037975970217</v>
+        <v>-0.04039620874377178</v>
       </c>
       <c r="E92">
-        <v>-0.01948017488920159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02457731814774503</v>
+      </c>
+      <c r="F92">
+        <v>-0.06382017612376445</v>
+      </c>
+      <c r="G92">
+        <v>0.1231091523693671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06499849758648069</v>
+        <v>0.2289523538199054</v>
       </c>
       <c r="C93">
-        <v>-0.3268172071175182</v>
+        <v>0.3218786984080624</v>
       </c>
       <c r="D93">
-        <v>0.1772711693779393</v>
+        <v>-0.01295561959397335</v>
       </c>
       <c r="E93">
-        <v>-0.04141261098136342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.004204177022751083</v>
+      </c>
+      <c r="F93">
+        <v>-0.03403435701164737</v>
+      </c>
+      <c r="G93">
+        <v>0.01677102754031375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03322134618681437</v>
+        <v>0.3156727805974959</v>
       </c>
       <c r="C94">
-        <v>-0.1652622882986662</v>
+        <v>-0.1751865806946077</v>
       </c>
       <c r="D94">
-        <v>-0.2617456567643273</v>
+        <v>-0.01793925870648472</v>
       </c>
       <c r="E94">
-        <v>-0.01535408010024073</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1628282568470038</v>
+      </c>
+      <c r="F94">
+        <v>-0.4757741245057011</v>
+      </c>
+      <c r="G94">
+        <v>-0.3039869342769018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004213632288936147</v>
+        <v>0.0982695702542051</v>
       </c>
       <c r="C95">
-        <v>-0.03621459820741402</v>
+        <v>-0.08465729170283726</v>
       </c>
       <c r="D95">
-        <v>-0.08753256303301475</v>
+        <v>-0.009116171673598858</v>
       </c>
       <c r="E95">
-        <v>-0.1270971590984654</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06319689143645189</v>
+      </c>
+      <c r="F95">
+        <v>0.2057548994445628</v>
+      </c>
+      <c r="G95">
+        <v>-0.10576926794925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01660112071127511</v>
+        <v>0.1999232571228773</v>
       </c>
       <c r="C98">
-        <v>-0.1557861048470399</v>
+        <v>-0.04389550477432138</v>
       </c>
       <c r="D98">
-        <v>-0.1280943125258041</v>
+        <v>-0.01239460071973872</v>
       </c>
       <c r="E98">
-        <v>-0.04444380975174431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.066309029606678</v>
+      </c>
+      <c r="F98">
+        <v>0.2386625189446373</v>
+      </c>
+      <c r="G98">
+        <v>-0.003967782482409239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008898956202997375</v>
+        <v>0.009568437160130288</v>
       </c>
       <c r="C101">
-        <v>-0.01890204211600858</v>
+        <v>-0.0200027834250591</v>
       </c>
       <c r="D101">
-        <v>-0.006751257343692303</v>
+        <v>0.008026249342722591</v>
       </c>
       <c r="E101">
-        <v>0.003789648616838264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001868686803067789</v>
+      </c>
+      <c r="F101">
+        <v>-0.01746898998651463</v>
+      </c>
+      <c r="G101">
+        <v>0.07243144609357791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01874877969665952</v>
+        <v>0.1187247120121273</v>
       </c>
       <c r="C102">
-        <v>-0.07119407761532001</v>
+        <v>-0.08429230382092652</v>
       </c>
       <c r="D102">
-        <v>-0.13429377393602</v>
+        <v>0.0009306497856506605</v>
       </c>
       <c r="E102">
-        <v>0.0003802032515772799</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03166288621797859</v>
+      </c>
+      <c r="F102">
+        <v>-0.04130415700124241</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002394140946941527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001774117762021289</v>
+        <v>0.00297241869781874</v>
       </c>
       <c r="C103">
-        <v>-0.008582903843015849</v>
+        <v>-0.003991525148260906</v>
       </c>
       <c r="D103">
-        <v>-0.0231705919471812</v>
+        <v>0.0002521038884037706</v>
       </c>
       <c r="E103">
-        <v>0.01357158874337712</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001910035846526866</v>
+      </c>
+      <c r="F103">
+        <v>-0.005138687712833811</v>
+      </c>
+      <c r="G103">
+        <v>0.01175765913875543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9729100354723849</v>
+        <v>0.02183111430079489</v>
       </c>
       <c r="C104">
-        <v>0.1865954532460513</v>
+        <v>0.03246712088741541</v>
       </c>
       <c r="D104">
-        <v>0.01767254436498938</v>
+        <v>0.9872062112147413</v>
       </c>
       <c r="E104">
-        <v>0.04063389194875419</v>
+        <v>-0.05313421090312793</v>
+      </c>
+      <c r="F104">
+        <v>-0.0387774153442902</v>
+      </c>
+      <c r="G104">
+        <v>-0.02426923805134958</v>
       </c>
     </row>
   </sheetData>
